--- a/From_AG.xlsx
+++ b/From_AG.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitocormun/Desktop/Literature/Beliefs/Noise_Over_Cycles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\th3\Documents\Noise_Over_Cycles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -118,6 +118,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -388,13 +391,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,7 +411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1946</v>
       </c>
@@ -422,7 +425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+0.25</f>
         <v>1946.25</v>
@@ -434,7 +437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+0.25</f>
         <v>1946.5</v>
@@ -449,7 +452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>1946.75</v>
@@ -464,7 +467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1947</v>
@@ -479,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1947.25</v>
@@ -494,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1947.5</v>
@@ -509,7 +512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1947.75</v>
@@ -524,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1948</v>
@@ -539,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1948.25</v>
@@ -554,7 +557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1948.5</v>
@@ -569,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1948.75</v>
@@ -584,7 +587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1949</v>
@@ -599,7 +602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1949.25</v>
@@ -611,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1949.5</v>
@@ -623,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>1949.75</v>
@@ -635,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>1950</v>
@@ -647,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>1950.25</v>
@@ -659,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>1950.5</v>
@@ -671,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>1950.75</v>
@@ -683,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>1951</v>
@@ -695,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>1951.25</v>
@@ -707,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>1951.5</v>
@@ -719,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>1951.75</v>
@@ -731,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>1952</v>
@@ -743,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>1952.25</v>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>1952.5</v>
@@ -767,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>1952.75</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>1953</v>
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>1953.25</v>
@@ -803,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>1953.5</v>
@@ -815,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>1953.75</v>
@@ -827,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>1954</v>
@@ -839,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>1954.25</v>
@@ -851,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>1954.5</v>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>1954.75</v>
@@ -875,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>1955</v>
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>1955.25</v>
@@ -899,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>1955.5</v>
@@ -911,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>1955.75</v>
@@ -923,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>1956</v>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>1956.25</v>
@@ -947,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>1956.5</v>
@@ -959,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>1956.75</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>1957</v>
@@ -983,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>1957.25</v>
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>1957.5</v>
@@ -1007,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>1957.75</v>
@@ -1019,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>1958</v>
@@ -1031,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>1958.25</v>
@@ -1043,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>1958.5</v>
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>1958.75</v>
@@ -1067,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>1959</v>
@@ -1079,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>1959.25</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>1959.5</v>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>1959.75</v>
@@ -1115,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>1960</v>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>1960.25</v>
@@ -1139,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>1960.5</v>
@@ -1151,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>1960.75</v>
@@ -1163,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>1961</v>
@@ -1175,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>1961.25</v>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>1961.5</v>
@@ -1199,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>1961.75</v>
@@ -1211,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>1962</v>
@@ -1223,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>1962.25</v>
@@ -1235,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+0.25</f>
         <v>1962.5</v>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>1962.75</v>
@@ -1259,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>1963</v>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>1963.25</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>1963.5</v>
@@ -1295,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>1963.75</v>
@@ -1307,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>1964</v>
@@ -1319,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>1964.25</v>
@@ -1331,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>1964.5</v>
@@ -1343,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>1964.75</v>
@@ -1355,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>1965</v>
@@ -1367,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>1965.25</v>
@@ -1379,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>1965.5</v>
@@ -1391,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>1965.75</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>1966</v>
@@ -1415,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>1966.25</v>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>1966.5</v>
@@ -1439,7 +1442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>1966.75</v>
@@ -1451,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>1967</v>
@@ -1463,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>1967.25</v>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>1967.5</v>
@@ -1487,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>1967.75</v>
@@ -1499,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>1968</v>
@@ -1511,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>1968.25</v>
@@ -1523,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>1968.5</v>
@@ -1535,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>1968.75</v>
@@ -1547,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>1969</v>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>1969.25</v>
@@ -1571,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>1969.5</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>1969.75</v>
@@ -1595,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -1607,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>1970.25</v>
@@ -1619,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>1970.5</v>
@@ -1631,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>1970.75</v>
@@ -1643,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>1971</v>
@@ -1655,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>1971.25</v>
@@ -1667,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>1971.5</v>
@@ -1679,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>1971.75</v>
@@ -1691,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>1972</v>
@@ -1703,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>1972.25</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>1972.5</v>
@@ -1727,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>1972.75</v>
@@ -1739,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>1973</v>
@@ -1751,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>1973.25</v>
@@ -1763,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>1973.5</v>
@@ -1775,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>1973.75</v>
@@ -1787,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>1974</v>
@@ -1799,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>1974.25</v>
@@ -1811,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>1974.5</v>
@@ -1823,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>1974.75</v>
@@ -1835,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>1975</v>
@@ -1847,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>1975.25</v>
@@ -1859,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>1975.5</v>
@@ -1871,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>1975.75</v>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>1976</v>
@@ -1895,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>1976.25</v>
@@ -1907,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>1976.5</v>
@@ -1919,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>1976.75</v>
@@ -1931,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>1977</v>
@@ -1943,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>1977.25</v>
@@ -1955,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>1977.5</v>
@@ -1967,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>1977.75</v>
@@ -1979,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>1978</v>
@@ -1991,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>1978.25</v>
@@ -2003,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+0.25</f>
         <v>1978.5</v>
@@ -2015,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>1978.75</v>
@@ -2027,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>1979</v>
@@ -2039,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>1979.25</v>
@@ -2051,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>1979.5</v>
@@ -2063,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>1979.75</v>
@@ -2075,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>1980</v>
@@ -2087,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>1980.25</v>
@@ -2099,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>1980.5</v>
@@ -2111,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>1980.75</v>
@@ -2123,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>1981</v>
@@ -2135,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>1981.25</v>
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>1981.5</v>
@@ -2159,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>1981.75</v>
@@ -2171,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>1982</v>
@@ -2183,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>1982.25</v>
@@ -2195,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>1982.5</v>
@@ -2207,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>1982.75</v>
@@ -2219,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>1983</v>
@@ -2231,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>1983.25</v>
@@ -2243,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>1983.5</v>
@@ -2255,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>1983.75</v>
@@ -2267,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>1984</v>
@@ -2279,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>1984.25</v>
@@ -2291,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>1984.5</v>
@@ -2303,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>1984.75</v>
@@ -2315,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>1985</v>
@@ -2327,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>1985.25</v>
@@ -2339,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>1985.5</v>
@@ -2351,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>1985.75</v>
@@ -2363,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>1986</v>
@@ -2375,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>1986.25</v>
@@ -2387,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>1986.5</v>
@@ -2399,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>1986.75</v>
@@ -2411,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>1987</v>
@@ -2423,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>1987.25</v>
@@ -2435,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>1987.5</v>
@@ -2447,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>1987.75</v>
@@ -2459,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -2471,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>1988.25</v>
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>1988.5</v>
@@ -2495,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>1988.75</v>
@@ -2507,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>1989</v>
@@ -2519,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>1989.25</v>
@@ -2531,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>1989.5</v>
@@ -2543,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>1989.75</v>
@@ -2555,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>1990</v>
@@ -2567,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>1990.25</v>
@@ -2579,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>1990.5</v>
@@ -2591,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>1990.75</v>
@@ -2603,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -2615,7 +2618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>1991.25</v>
@@ -2627,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>1991.5</v>
@@ -2639,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>1991.75</v>
@@ -2651,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>1992</v>
@@ -2663,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>1992.25</v>
@@ -2675,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>1992.5</v>
@@ -2687,7 +2690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>1992.75</v>
@@ -2699,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -2711,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>1993.25</v>
@@ -2723,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>1993.5</v>
@@ -2735,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>1993.75</v>
@@ -2747,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>1994</v>
@@ -2759,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>1994.25</v>
@@ -2771,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A257" si="3">A195+0.25</f>
         <v>1994.5</v>
@@ -2783,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>1994.75</v>
@@ -2795,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>1995</v>
@@ -2807,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>1995.25</v>
@@ -2819,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>1995.5</v>
@@ -2831,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>1995.75</v>
@@ -2843,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>1996</v>
@@ -2855,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>1996.25</v>
@@ -2867,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>1996.5</v>
@@ -2879,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>1996.75</v>
@@ -2891,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>1997</v>
@@ -2903,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>1997.25</v>
@@ -2915,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>1997.5</v>
@@ -2927,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>1997.75</v>
@@ -2939,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>1998</v>
@@ -2951,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>1998.25</v>
@@ -2963,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>1998.5</v>
@@ -2975,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>1998.75</v>
@@ -2987,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>1999</v>
@@ -2999,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>1999.25</v>
@@ -3011,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>1999.5</v>
@@ -3023,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>1999.75</v>
@@ -3035,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>2000</v>
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>2000.25</v>
@@ -3059,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>2000.5</v>
@@ -3071,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>2000.75</v>
@@ -3083,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>2001</v>
@@ -3095,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>2001.25</v>
@@ -3107,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>2001.5</v>
@@ -3119,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>2001.75</v>
@@ -3131,7 +3134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>2002</v>
@@ -3143,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>2002.25</v>
@@ -3155,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>2002.5</v>
@@ -3167,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>2002.75</v>
@@ -3179,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>2003</v>
@@ -3191,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>2003.25</v>
@@ -3203,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>2003.5</v>
@@ -3215,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>2003.75</v>
@@ -3227,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>2004</v>
@@ -3239,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>2004.25</v>
@@ -3251,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>2004.5</v>
@@ -3263,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>2004.75</v>
@@ -3275,7 +3278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>2005</v>
@@ -3287,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>2005.25</v>
@@ -3299,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>2005.5</v>
@@ -3311,7 +3314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>2005.75</v>
@@ -3323,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>2006</v>
@@ -3335,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>2006.25</v>
@@ -3344,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>2006.5</v>
@@ -3353,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>2006.75</v>
@@ -3362,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>2007</v>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>2007.25</v>
@@ -3380,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>2007.5</v>
@@ -3389,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>2007.75</v>
@@ -3398,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>2008</v>
@@ -3407,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>2008.25</v>
@@ -3416,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>2008.5</v>
@@ -3425,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>2008.75</v>
@@ -3434,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>2009</v>
@@ -3443,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>2009.25</v>
@@ -3452,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>2009.5</v>
@@ -3461,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>2009.75</v>
@@ -3472,5 +3475,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>